--- a/计算结果.xlsx
+++ b/计算结果.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desktops\SAA_Solver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B088A44-1FDD-4F2B-A102-885E0EF8A1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04E1380-CF6F-4F12-B22B-DC5F6F66EB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="4160" windowWidth="22580" windowHeight="14730" xr2:uid="{EE79F45A-FDE5-45C5-A571-8C4E6D107684}"/>
+    <workbookView xWindow="5680" yWindow="6370" windowWidth="28800" windowHeight="13880" xr2:uid="{EE79F45A-FDE5-45C5-A571-8C4E6D107684}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -214,11 +214,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -249,7 +249,14 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -361,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -373,7 +380,7 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -385,7 +392,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -394,10 +401,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -418,9 +422,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -458,7 +462,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -564,7 +568,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -706,7 +710,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -717,52 +721,52 @@
   <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.26953125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.9140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.90625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.36328125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="11.08984375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7265625" style="1" customWidth="1"/>
-    <col min="12" max="13" width="18.453125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="27.54296875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.26953125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="20.36328125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.54296875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.9140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="11.08203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.75" style="1" customWidth="1"/>
+    <col min="12" max="13" width="18.4140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="27.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11" style="1" customWidth="1"/>
-    <col min="21" max="21" width="18.453125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.81640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="27.54296875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="17.08984375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="14.1796875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="18.4140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.83203125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="27.5" style="1" customWidth="1"/>
+    <col min="25" max="25" width="17.08203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="14.1640625" style="1" customWidth="1"/>
     <col min="27" max="27" width="19" style="1" customWidth="1"/>
-    <col min="28" max="28" width="15.90625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7265625" style="1" customWidth="1"/>
-    <col min="30" max="31" width="11.08984375" style="1" customWidth="1"/>
-    <col min="32" max="32" width="20.1796875" style="1" customWidth="1"/>
-    <col min="33" max="33" width="18.453125" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="8.7265625" style="1"/>
+    <col min="28" max="28" width="15.9140625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="15.75" style="1" customWidth="1"/>
+    <col min="30" max="31" width="11.08203125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="20.1640625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="18.4140625" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15" thickBot="1">
+    <row r="1" spans="1:33" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="10"/>
@@ -774,7 +778,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
       <c r="L1" s="11"/>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="9" t="s">
         <v>22</v>
       </c>
       <c r="O1" s="10"/>
@@ -786,8 +790,8 @@
       <c r="U1" s="10"/>
       <c r="V1" s="11"/>
       <c r="W1" s="4"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="9" t="s">
+      <c r="X1" s="5"/>
+      <c r="Y1" s="12" t="s">
         <v>21</v>
       </c>
       <c r="Z1" s="10"/>
@@ -799,7 +803,7 @@
       <c r="AF1" s="10"/>
       <c r="AG1" s="11"/>
     </row>
-    <row r="2" spans="1:33" ht="15" thickBot="1">
+    <row r="2" spans="1:33" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="2" t="s">
@@ -832,66 +836,66 @@
       <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="W2" s="4"/>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="Z2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AB2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AC2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AD2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AE2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AF2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AG2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="15" thickBot="1">
+    <row r="3" spans="1:33" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -956,7 +960,7 @@
         <v>1.5678104908972219</v>
       </c>
       <c r="W3" s="4"/>
-      <c r="X3" s="5" t="s">
+      <c r="X3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Y3" s="6">
@@ -987,7 +991,7 @@
         <v>61655796.809217803</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="15" thickBot="1">
+    <row r="4" spans="1:33" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="2" t="s">
@@ -1046,7 +1050,7 @@
         <v>4.7672630527646948E-2</v>
       </c>
       <c r="W4" s="4"/>
-      <c r="X4" s="5" t="s">
+      <c r="X4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="Y4" s="7"/>
@@ -1075,7 +1079,7 @@
         <v>60733011.227959797</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="15" thickBot="1">
+    <row r="5" spans="1:33" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="2" t="s">
@@ -1134,7 +1138,7 @@
         <v>0.73696751118738546</v>
       </c>
       <c r="W5" s="4"/>
-      <c r="X5" s="5" t="s">
+      <c r="X5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="Y5" s="7"/>
@@ -1163,7 +1167,7 @@
         <v>61151441.288607799</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="15" thickBot="1">
+    <row r="6" spans="1:33" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="2" t="s">
@@ -1222,7 +1226,7 @@
         <v>0.7926682140585225</v>
       </c>
       <c r="W6" s="4"/>
-      <c r="X6" s="5" t="s">
+      <c r="X6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="Y6" s="8"/>
@@ -1251,7 +1255,7 @@
         <v>61185253.8833832</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="15" thickBot="1">
+    <row r="7" spans="1:33" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
@@ -1264,162 +1268,354 @@
       <c r="D7" s="6">
         <v>15.76051720000032</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="E7" s="2">
+        <v>56.65650000000096</v>
+      </c>
+      <c r="F7" s="2">
+        <v>56.00627539999914</v>
+      </c>
+      <c r="G7" s="2">
+        <v>52.002736200000072</v>
+      </c>
+      <c r="H7" s="2">
+        <v>51.487865399998547</v>
+      </c>
+      <c r="I7" s="2">
+        <v>56.041012900001078</v>
+      </c>
+      <c r="J7" s="2">
+        <v>50.45715890000065</v>
+      </c>
+      <c r="K7" s="2">
+        <v>59.589026300000107</v>
+      </c>
+      <c r="L7" s="2">
+        <v>58.989707100001397</v>
+      </c>
       <c r="N7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
+      <c r="O7" s="2">
+        <v>0.3371505257084601</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.28331619641242251</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1.203587610674572</v>
+      </c>
+      <c r="R7" s="2">
+        <v>7.1868268894167242</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0.3738225858029352</v>
+      </c>
+      <c r="T7" s="2">
+        <v>1.3462520524997521</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0.33402807176413002</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0.27398165752462439</v>
+      </c>
       <c r="W7" s="4"/>
-      <c r="X7" s="5" t="s">
+      <c r="X7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Y7" s="6">
         <v>68409915.671981901</v>
       </c>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
+      <c r="Z7" s="2">
+        <v>68640560.062306702</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>68603732.043032706</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>69233288.941482797</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>73326417.886523202</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>68665647.387692511</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>69330885.565829307</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>68638423.994196489</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>68597346.292851195</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" ht="15" thickBot="1">
+    <row r="8" spans="1:33" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="E8" s="2">
+        <v>59.183636800000393</v>
+      </c>
+      <c r="F8" s="2">
+        <v>61.109449600000517</v>
+      </c>
+      <c r="G8" s="2">
+        <v>53.192656700000953</v>
+      </c>
+      <c r="H8" s="2">
+        <v>52.331394600001659</v>
+      </c>
+      <c r="I8" s="2">
+        <v>58.169434700001148</v>
+      </c>
+      <c r="J8" s="2">
+        <v>50.366014600000199</v>
+      </c>
+      <c r="K8" s="2">
+        <v>57.367047700001422</v>
+      </c>
+      <c r="L8" s="2">
+        <v>58.198113900001772</v>
+      </c>
       <c r="N8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
+      <c r="O8" s="2">
+        <v>0.75984295802836976</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.36970661647881831</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1.490172644506601</v>
+      </c>
+      <c r="R8" s="2">
+        <v>5.9031527367848424</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0.18347354620085099</v>
+      </c>
+      <c r="T8" s="2">
+        <v>1.3462520524997521</v>
+      </c>
+      <c r="U8" s="2">
+        <v>1.802947517557236</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0.14077661727852811</v>
+      </c>
       <c r="W8" s="4"/>
-      <c r="X8" s="5" t="s">
+      <c r="X8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="Y8" s="7"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
+      <c r="Z8" s="2">
+        <v>68929723.598808601</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>68662831.656548798</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>69429341.521455809</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>72448257.481204703</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>68535429.770218298</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>69330885.565829307</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>69643310.548352897</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>68506220.837148011</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" ht="15" thickBot="1">
+    <row r="9" spans="1:33" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="E9" s="2">
+        <v>58.581936099999439</v>
+      </c>
+      <c r="F9" s="2">
+        <v>57.454768699997658</v>
+      </c>
+      <c r="G9" s="2">
+        <v>53.327317699997373</v>
+      </c>
+      <c r="H9" s="2">
+        <v>55.631064799999884</v>
+      </c>
+      <c r="I9" s="2">
+        <v>55.70176469999933</v>
+      </c>
+      <c r="J9" s="2">
+        <v>62.726333399998111</v>
+      </c>
+      <c r="K9" s="2">
+        <v>56.999058199999133</v>
+      </c>
+      <c r="L9" s="2">
+        <v>61.722257400000672</v>
+      </c>
       <c r="N9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
+      <c r="O9" s="2">
+        <v>0.40743696824941927</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.4321280910711025</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>1.319868823566319</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0.82002949462200492</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0.36616074533371018</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0.13677574074048751</v>
+      </c>
+      <c r="U9" s="2">
+        <v>7.0732003536345163</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0.48614642318965501</v>
+      </c>
       <c r="W9" s="4"/>
-      <c r="X9" s="5" t="s">
+      <c r="X9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="Y9" s="7"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
+      <c r="Z9" s="2">
+        <v>68688642.958377808</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>68705534.134678587</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>69312836.821164399</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>68970897.157738194</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>68660405.929088593</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>68503483.840882197</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>73248686.069213599</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>68742488.0301283</v>
+      </c>
     </row>
-    <row r="10" spans="1:33" ht="15" thickBot="1">
+    <row r="10" spans="1:33" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="E10" s="2">
+        <v>59.783967999999732</v>
+      </c>
+      <c r="F10" s="2">
+        <v>66.411767699999473</v>
+      </c>
+      <c r="G10" s="2">
+        <v>55.847324700000172</v>
+      </c>
+      <c r="H10" s="2">
+        <v>53.994032700000389</v>
+      </c>
+      <c r="I10" s="2">
+        <v>60.19950119999703</v>
+      </c>
+      <c r="J10" s="2">
+        <v>49.713464000000393</v>
+      </c>
+      <c r="K10" s="2">
+        <v>58.166348500002641</v>
+      </c>
+      <c r="L10" s="2">
+        <v>61.814072799999849</v>
+      </c>
       <c r="N10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
+      <c r="O10" s="2">
+        <v>0.62868556232624162</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.39110962874153571</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0.7088134761607281</v>
+      </c>
+      <c r="R10" s="2">
+        <v>3.2775304281316231</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0.1375952814734327</v>
+      </c>
+      <c r="T10" s="2">
+        <v>25.092744274781211</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0.37908673733375942</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0.41377360692279819</v>
+      </c>
       <c r="W10" s="4"/>
-      <c r="X10" s="5" t="s">
+      <c r="X10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="Y10" s="8"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
+      <c r="Z10" s="2">
+        <v>68839998.935011208</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>68677473.439188987</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>68894814.373295099</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>70652071.473990291</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>68504044.488006502</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>85575840.870145798</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>68669248.589315593</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>68692977.847550705</v>
+      </c>
     </row>
-    <row r="11" spans="1:33" ht="15" thickBot="1">
+    <row r="11" spans="1:33" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
@@ -1432,162 +1628,354 @@
       <c r="D11" s="6">
         <v>116.30054050000039</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="E11" s="2">
+        <v>142.94826740000099</v>
+      </c>
+      <c r="F11" s="2">
+        <v>135.77789499999929</v>
+      </c>
+      <c r="G11" s="2">
+        <v>130.1284710999989</v>
+      </c>
+      <c r="H11" s="2">
+        <v>133.06589149999849</v>
+      </c>
+      <c r="I11" s="2">
+        <v>140.084024400001</v>
+      </c>
+      <c r="J11" s="2">
+        <v>126.8491482999998</v>
+      </c>
+      <c r="K11" s="2">
+        <v>142.5434746999999</v>
+      </c>
+      <c r="L11" s="2">
+        <v>144.18302260000021</v>
+      </c>
       <c r="N11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
+      <c r="O11" s="2">
+        <v>0.38914266068756531</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.25647628827045005</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>3.5317863233064877</v>
+      </c>
+      <c r="R11" s="2">
+        <v>2.7291338177728774</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0.5075583455166528</v>
+      </c>
+      <c r="T11" s="2">
+        <v>4.195827745093708</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0.33185305844103985</v>
+      </c>
+      <c r="V11" s="2">
+        <v>5.0038179261292628E-2</v>
+      </c>
       <c r="W11" s="4"/>
-      <c r="X11" s="5" t="s">
+      <c r="X11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Y11" s="6">
         <v>71066366.351997718</v>
       </c>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
+      <c r="Z11" s="2">
+        <v>71342915.90087384</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>71248634.730625987</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>73576278.559288442</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>73005862.589172438</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>71427069.625272706</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>74048188.668824762</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>71302202.262259722</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>71101926.667787403</v>
+      </c>
     </row>
-    <row r="12" spans="1:33" ht="15" thickBot="1">
+    <row r="12" spans="1:33" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="E12" s="2">
+        <v>152.02559579999979</v>
+      </c>
+      <c r="F12" s="2">
+        <v>134.50916920000051</v>
+      </c>
+      <c r="G12" s="2">
+        <v>128.98483339999979</v>
+      </c>
+      <c r="H12" s="2">
+        <v>132.24749410000001</v>
+      </c>
+      <c r="I12" s="2">
+        <v>137.272615599999</v>
+      </c>
+      <c r="J12" s="2">
+        <v>128.50761369999961</v>
+      </c>
+      <c r="K12" s="2">
+        <v>138.43497250000109</v>
+      </c>
+      <c r="L12" s="2">
+        <v>141.09653880000039</v>
+      </c>
       <c r="N12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
+      <c r="O12" s="2">
+        <v>0.43800122175187434</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.23310957340009686</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>1.411626046987122</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0.55891473015357862</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0.13417908692670927</v>
+      </c>
+      <c r="T12" s="2">
+        <v>1.3235095434412092</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0.44390072974350792</v>
+      </c>
+      <c r="V12" s="2">
+        <v>5.7679069740058375E-2</v>
+      </c>
       <c r="W12" s="4"/>
-      <c r="X12" s="5" t="s">
+      <c r="X12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="Y12" s="7"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
+      <c r="Z12" s="2">
+        <v>71377637.904874116</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>71232028.855431795</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>72069557.690069795</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>71463566.741723925</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>71161722.553480804</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>72006936.492843285</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>71381830.470836416</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>71107356.771007597</v>
+      </c>
     </row>
-    <row r="13" spans="1:33" ht="15" thickBot="1">
+    <row r="13" spans="1:33" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="E13" s="2">
+        <v>135.46673159999949</v>
+      </c>
+      <c r="F13" s="2">
+        <v>137.44830799999909</v>
+      </c>
+      <c r="G13" s="2">
+        <v>129.29790430000139</v>
+      </c>
+      <c r="H13" s="2">
+        <v>128.9519681999991</v>
+      </c>
+      <c r="I13" s="2">
+        <v>135.33998650000291</v>
+      </c>
+      <c r="J13" s="2">
+        <v>234.95469569999841</v>
+      </c>
+      <c r="K13" s="2">
+        <v>133.75563930000129</v>
+      </c>
+      <c r="L13" s="2">
+        <v>142.64013909999991</v>
+      </c>
       <c r="N13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
+      <c r="O13" s="2">
+        <v>0.63519897476312426</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.25629251828618649</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>4.6586437303016819</v>
+      </c>
+      <c r="R13" s="2">
+        <v>3.1940087128314634</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0.73928488322460795</v>
+      </c>
+      <c r="T13" s="2">
+        <v>1.6408605405610219</v>
+      </c>
+      <c r="U13" s="2">
+        <v>3.9619285333106018</v>
+      </c>
+      <c r="V13" s="2">
+        <v>0.67930460445622465</v>
+      </c>
       <c r="W13" s="4"/>
-      <c r="X13" s="5" t="s">
+      <c r="X13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="Y13" s="7"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
+      <c r="Z13" s="2">
+        <v>71517779.182466999</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>71248504.131975725</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>74377095.172408268</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>73336232.285173237</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>71591749.255495042</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>72232466.315078169</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>73881964.998084545</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>71549123.450846553</v>
+      </c>
     </row>
-    <row r="14" spans="1:33" ht="15" thickBot="1">
+    <row r="14" spans="1:33" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="E14" s="2">
+        <v>139.27143769999751</v>
+      </c>
+      <c r="F14" s="2">
+        <v>138.11516069999931</v>
+      </c>
+      <c r="G14" s="2">
+        <v>134.25749510000239</v>
+      </c>
+      <c r="H14" s="2">
+        <v>138.6757276999997</v>
+      </c>
+      <c r="I14" s="2">
+        <v>139.64134910000209</v>
+      </c>
+      <c r="J14" s="2">
+        <v>131.2391948000004</v>
+      </c>
+      <c r="K14" s="2">
+        <v>141.39142899999931</v>
+      </c>
+      <c r="L14" s="2">
+        <v>145.58752749999991</v>
+      </c>
       <c r="N14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
+      <c r="O14" s="2">
+        <v>0.22662788828815852</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.72214904969118898</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>4.0705025202569454</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0.97003229516133571</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0.23735135273812119</v>
+      </c>
+      <c r="T14" s="2">
+        <v>2.2799213040480351</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0.21429310076874789</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0.26036991503879109</v>
+      </c>
       <c r="W14" s="4"/>
-      <c r="X14" s="5" t="s">
+      <c r="X14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="Y14" s="8"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
+      <c r="Z14" s="2">
+        <v>71227422.557344362</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>71579571.441258714</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>73959124.585410804</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>71755733.05660975</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>71235043.333875999</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>72686623.578469723</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>71218656.672057077</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>71251401.789689556</v>
+      </c>
     </row>
-    <row r="15" spans="1:33" ht="15" thickBot="1">
+    <row r="15" spans="1:33" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
@@ -1600,354 +1988,354 @@
       <c r="D15" s="6">
         <v>36.367727700000607</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="2">
         <v>148.89086789999959</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="2">
         <v>119.6755139000015</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="2">
         <v>96.433622200000173</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="2">
         <v>123.2378250999991</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="2">
         <v>112.9839628999998</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="2">
         <v>91.602743699999337</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="2">
         <v>184.98228569999989</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="2">
         <v>359.05728929999901</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="2">
         <v>0.1319862747767783</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15" s="2">
         <v>8.5060612418651968E-2</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="Q15" s="2">
         <v>1.294987038311052</v>
       </c>
-      <c r="R15" s="5">
+      <c r="R15" s="2">
         <v>1.720834092807193</v>
       </c>
-      <c r="S15" s="5">
+      <c r="S15" s="2">
         <v>0.25852239853933029</v>
       </c>
-      <c r="T15" s="5">
+      <c r="T15" s="2">
         <v>4.393543274209665</v>
       </c>
-      <c r="U15" s="5">
+      <c r="U15" s="2">
         <v>4.3003794935076449</v>
       </c>
-      <c r="V15" s="5">
+      <c r="V15" s="2">
         <v>4.9819893037347134</v>
       </c>
       <c r="W15" s="4"/>
-      <c r="X15" s="5" t="s">
+      <c r="X15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Y15" s="6">
         <v>124324070.737138</v>
       </c>
-      <c r="Z15" s="5">
+      <c r="Z15" s="2">
         <v>124488161.4467548</v>
       </c>
-      <c r="AA15" s="5">
+      <c r="AA15" s="2">
         <v>124429821.5530908</v>
       </c>
-      <c r="AB15" s="5">
+      <c r="AB15" s="2">
         <v>125934051.3386846</v>
       </c>
-      <c r="AC15" s="5">
+      <c r="AC15" s="2">
         <v>126463481.73194841</v>
       </c>
-      <c r="AD15" s="5">
+      <c r="AD15" s="2">
         <v>124645476.3067694</v>
       </c>
-      <c r="AE15" s="5">
+      <c r="AE15" s="2">
         <v>129786302.5852332</v>
       </c>
-      <c r="AF15" s="5">
+      <c r="AF15" s="2">
         <v>129670477.5806118</v>
       </c>
-      <c r="AG15" s="5">
+      <c r="AG15" s="2">
         <v>130517882.6432298</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="15" thickBot="1">
+    <row r="16" spans="1:33" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="7"/>
-      <c r="E16" s="5">
+      <c r="E16" s="2">
         <v>154.01318480000009</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="2">
         <v>135.6483664000007</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="2">
         <v>96.5621112000008</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="2">
         <v>120.55592489999979</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="2">
         <v>113.3777139000013</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="2">
         <v>94.546263300000646</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="2">
         <v>114.6124357000008</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="2">
         <v>131.7679200999992</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="2">
         <v>0.18686290477779011</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16" s="2">
         <v>0.21371295271466309</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q16" s="2">
         <v>1.907900184745678</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R16" s="2">
         <v>1.8435854220205661</v>
       </c>
-      <c r="S16" s="5">
+      <c r="S16" s="2">
         <v>0.17959054293392979</v>
       </c>
-      <c r="T16" s="5">
+      <c r="T16" s="2">
         <v>5.6592430249780206</v>
       </c>
-      <c r="U16" s="5">
+      <c r="U16" s="2">
         <v>1.6853100831212651</v>
       </c>
-      <c r="V16" s="5">
+      <c r="V16" s="2">
         <v>3.8297637408168521</v>
       </c>
       <c r="W16" s="4"/>
-      <c r="X16" s="5" t="s">
+      <c r="X16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="Y16" s="7"/>
-      <c r="Z16" s="5">
+      <c r="Z16" s="2">
         <v>124556386.3070554</v>
       </c>
-      <c r="AA16" s="5">
+      <c r="AA16" s="2">
         <v>124589767.37964541</v>
       </c>
-      <c r="AB16" s="5">
+      <c r="AB16" s="2">
         <v>126696049.91241521</v>
       </c>
-      <c r="AC16" s="5">
+      <c r="AC16" s="2">
         <v>126616091.1813104</v>
       </c>
-      <c r="AD16" s="5">
+      <c r="AD16" s="2">
         <v>124547345.01077241</v>
       </c>
-      <c r="AE16" s="5">
+      <c r="AE16" s="2">
         <v>131359872.0386982</v>
       </c>
-      <c r="AF16" s="5">
+      <c r="AF16" s="2">
         <v>126419316.8370178</v>
       </c>
-      <c r="AG16" s="5">
+      <c r="AG16" s="2">
         <v>129085388.91933639</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="15" thickBot="1">
+    <row r="17" spans="1:33" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="5">
+      <c r="E17" s="2">
         <v>120.0611552000009</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="2">
         <v>151.0655680999989</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="2">
         <v>100.30107580000001</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="2">
         <v>119.8573177999988</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="2">
         <v>122.8082266000001</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="2">
         <v>138.6936069000003</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="2">
         <v>112.5089548000014</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="2">
         <v>261.78549430000021</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="2">
         <v>1.0927536612936539</v>
       </c>
-      <c r="P17" s="5">
+      <c r="P17" s="2">
         <v>0.24707096086891961</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="Q17" s="2">
         <v>2.1825254155017411</v>
       </c>
-      <c r="R17" s="5">
+      <c r="R17" s="2">
         <v>0.82470382821878707</v>
       </c>
-      <c r="S17" s="5">
+      <c r="S17" s="2">
         <v>0.99686747104781226</v>
       </c>
-      <c r="T17" s="5">
+      <c r="T17" s="2">
         <v>3.7522976193208422</v>
       </c>
-      <c r="U17" s="5">
+      <c r="U17" s="2">
         <v>3.7757855357049062</v>
       </c>
-      <c r="V17" s="5">
+      <c r="V17" s="2">
         <v>1.303684500477877</v>
       </c>
       <c r="W17" s="4"/>
-      <c r="X17" s="5" t="s">
+      <c r="X17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="Y17" s="7"/>
-      <c r="Z17" s="5">
+      <c r="Z17" s="2">
         <v>125682626.57198741</v>
       </c>
-      <c r="AA17" s="5">
+      <c r="AA17" s="2">
         <v>124631239.41329961</v>
       </c>
-      <c r="AB17" s="5">
+      <c r="AB17" s="2">
         <v>127037475.1785624</v>
       </c>
-      <c r="AC17" s="5">
+      <c r="AC17" s="2">
         <v>125349376.1079046</v>
       </c>
-      <c r="AD17" s="5">
+      <c r="AD17" s="2">
         <v>125563416.956999</v>
       </c>
-      <c r="AE17" s="5">
+      <c r="AE17" s="2">
         <v>128989079.88365041</v>
       </c>
-      <c r="AF17" s="5">
+      <c r="AF17" s="2">
         <v>129018281.01743039</v>
       </c>
-      <c r="AG17" s="5">
+      <c r="AG17" s="2">
         <v>125944864.37770119</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="15" thickBot="1">
+    <row r="18" spans="1:33" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="5">
+      <c r="E18" s="2">
         <v>127.9551272000008</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="2">
         <v>144.2317072000005</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="2">
         <v>101.5477286000005</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="2">
         <v>146.33414309999901</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="2">
         <v>242.6405020000002</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="2">
         <v>139.46193740000129</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="2">
         <v>128.2254116000004</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="2">
         <v>194.83597609999919</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="2">
         <v>0.2141431725232826</v>
       </c>
-      <c r="P18" s="5">
+      <c r="P18" s="2">
         <v>0.81595089733623294</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18" s="2">
         <v>1.1041719142522659</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="2">
         <v>1.6454556246753551</v>
       </c>
-      <c r="S18" s="5">
+      <c r="S18" s="2">
         <v>0.25407946708846529</v>
       </c>
-      <c r="T18" s="5">
+      <c r="T18" s="2">
         <v>6.5467907047453631</v>
       </c>
-      <c r="U18" s="5">
+      <c r="U18" s="2">
         <v>4.2689633566625158</v>
       </c>
-      <c r="V18" s="5">
+      <c r="V18" s="2">
         <v>3.837579107219995</v>
       </c>
       <c r="W18" s="4"/>
-      <c r="X18" s="5" t="s">
+      <c r="X18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="Y18" s="8"/>
-      <c r="Z18" s="5">
+      <c r="Z18" s="2">
         <v>124590302.2464246</v>
       </c>
-      <c r="AA18" s="5">
+      <c r="AA18" s="2">
         <v>125338494.1079226</v>
       </c>
-      <c r="AB18" s="5">
+      <c r="AB18" s="2">
         <v>125696822.2088726</v>
       </c>
-      <c r="AC18" s="5">
+      <c r="AC18" s="2">
         <v>126369768.15190759</v>
       </c>
-      <c r="AD18" s="5">
+      <c r="AD18" s="2">
         <v>124639952.6735296</v>
       </c>
-      <c r="AE18" s="5">
+      <c r="AE18" s="2">
         <v>132463307.443918</v>
       </c>
-      <c r="AF18" s="5">
+      <c r="AF18" s="2">
         <v>129631419.7604176</v>
       </c>
-      <c r="AG18" s="5">
+      <c r="AG18" s="2">
         <v>129095105.3009918</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="15" thickBot="1">
+    <row r="19" spans="1:33" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
@@ -1978,7 +2366,7 @@
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="4"/>
-      <c r="X19" s="5" t="s">
+      <c r="X19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Y19" s="6"/>
@@ -1991,7 +2379,7 @@
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
     </row>
-    <row r="20" spans="1:33" ht="15" thickBot="1">
+    <row r="20" spans="1:33" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="2" t="s">
@@ -2018,7 +2406,7 @@
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="4"/>
-      <c r="X20" s="5" t="s">
+      <c r="X20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="Y20" s="7"/>
@@ -2031,7 +2419,7 @@
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
     </row>
-    <row r="21" spans="1:33" ht="15" thickBot="1">
+    <row r="21" spans="1:33" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="2" t="s">
@@ -2058,7 +2446,7 @@
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="4"/>
-      <c r="X21" s="5" t="s">
+      <c r="X21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="Y21" s="7"/>
@@ -2071,7 +2459,7 @@
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
     </row>
-    <row r="22" spans="1:33" ht="15" thickBot="1">
+    <row r="22" spans="1:33" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="2" t="s">
@@ -2098,7 +2486,7 @@
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
       <c r="W22" s="4"/>
-      <c r="X22" s="5" t="s">
+      <c r="X22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="Y22" s="8"/>
@@ -2111,7 +2499,7 @@
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
     </row>
-    <row r="23" spans="1:33" ht="15" thickBot="1">
+    <row r="23" spans="1:33" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -2142,7 +2530,7 @@
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="4"/>
-      <c r="X23" s="5" t="s">
+      <c r="X23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Y23" s="6"/>
@@ -2155,7 +2543,7 @@
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
     </row>
-    <row r="24" spans="1:33" ht="15" thickBot="1">
+    <row r="24" spans="1:33" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="2" t="s">
@@ -2182,7 +2570,7 @@
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="4"/>
-      <c r="X24" s="5" t="s">
+      <c r="X24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="Y24" s="7"/>
@@ -2195,7 +2583,7 @@
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
     </row>
-    <row r="25" spans="1:33" ht="15" thickBot="1">
+    <row r="25" spans="1:33" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="2" t="s">
@@ -2222,7 +2610,7 @@
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="4"/>
-      <c r="X25" s="5" t="s">
+      <c r="X25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="Y25" s="7"/>
@@ -2235,7 +2623,7 @@
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
     </row>
-    <row r="26" spans="1:33" ht="15" thickBot="1">
+    <row r="26" spans="1:33" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="2" t="s">
@@ -2262,7 +2650,7 @@
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
       <c r="W26" s="4"/>
-      <c r="X26" s="5" t="s">
+      <c r="X26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="Y26" s="8"/>
@@ -2277,23 +2665,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="Y3:Y6"/>
-    <mergeCell ref="Y7:Y10"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="Y1:AG1"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="Y15:Y18"/>
-    <mergeCell ref="Y19:Y22"/>
-    <mergeCell ref="Y23:Y26"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A3:A6"/>
@@ -2305,9 +2676,87 @@
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="Y3:Y6"/>
+    <mergeCell ref="Y7:Y10"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="Y1:AG1"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="Y15:Y18"/>
+    <mergeCell ref="Y19:Y22"/>
+    <mergeCell ref="Y23:Y26"/>
     <mergeCell ref="C1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="O3:V10">
+  <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="D3:L6">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:V6">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y3:AG6">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:L14">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:L18">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O11:V14">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2319,7 +2768,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:L6">
+  <conditionalFormatting sqref="O15:V18">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y11:AG14">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2331,7 +2792,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:L10">
+  <conditionalFormatting sqref="Y15:AG18">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2343,7 +2804,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:AG6">
+  <conditionalFormatting sqref="D7:L10">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2355,7 +2816,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y7:AG10">
+  <conditionalFormatting sqref="O7:V10">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2367,7 +2828,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7:V10">
+  <conditionalFormatting sqref="Y7:AG10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
